--- a/Data/CoverageOfApplications.xlsx
+++ b/Data/CoverageOfApplications.xlsx
@@ -54,15 +54,6 @@
     <t>Number of interactions</t>
   </si>
   <si>
-    <t>Summe</t>
-  </si>
-  <si>
-    <t>Median</t>
-  </si>
-  <si>
-    <t>Arithmetische Mittel</t>
-  </si>
-  <si>
     <t>Covered Interactions all resources</t>
   </si>
   <si>
@@ -82,6 +73,15 @@
   </si>
   <si>
     <t>Hot Spots</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>arithmetical mean</t>
   </si>
 </sst>
 </file>
@@ -405,7 +405,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,13 +447,13 @@
         <v>9</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -505,7 +505,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>12</v>
@@ -552,7 +552,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -599,7 +599,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <f t="shared" ref="B8:K8" si="0">B4/B2</f>
@@ -652,7 +652,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <f t="shared" ref="B10:K10" si="1">B3/B2</f>
@@ -705,7 +705,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -740,7 +740,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -775,7 +775,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B21">
         <v>18</v>
